--- a/altogether/Murray_dataset/Ben_data.xlsx
+++ b/altogether/Murray_dataset/Ben_data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFF7365-DE1C-C342-B5EB-40EBC1DA8FE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,16 +424,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="BF6" sqref="BF6:BI21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -556,7 +560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>235.97251</v>
       </c>
@@ -702,7 +706,7 @@
         <v>775674.96836000006</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>235.78756999999999</v>
       </c>
@@ -848,7 +852,7 @@
         <v>806101.24661000003</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>235.60263</v>
       </c>
@@ -994,7 +998,7 @@
         <v>1713737.80602</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>235.41768999999999</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>913614.72909000004</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>235.23274000000001</v>
       </c>
@@ -1289,7 +1293,7 @@
         <v>5299148.0702499999</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="L11">
         <v>235.66941</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>1246014.6512500001</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="L12">
         <v>235.49625</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>1326456.8173400001</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>2941144.0836999998</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1672,7 +1676,7 @@
         <v>3433453.7817199999</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1726,7 @@
         <v>6545162.7215</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +1776,7 @@
         <v>2744463.6622299999</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1802,7 @@
         <v>3168250.7834200002</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="BF18">
         <v>236.20331999999999</v>
       </c>
@@ -1812,7 +1816,7 @@
         <v>8333502.9586100001</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>5912714.4456500001</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
